--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW3.xlsx
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="K94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
       <c r="L94" t="n">
-        <v>1.009409210964</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>2.106742106238</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>2.852315788896</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>2.997639474984</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12111,37 +12111,37 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="F317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="G317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="H317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="I317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="J317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="K317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
       <c r="L317" t="n">
-        <v>1.8749999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.6288333334966666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>3.0626289468810004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>1.3373684211999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.32765526319399996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.3239947369879999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>3.51123684373</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="C475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="D475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="E475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="G475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="H475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="I475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="J475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="K475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
       <c r="L475" t="n">
-        <v>0.3029833331863333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>5.26381578975</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.354734210418</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>3.635799998236</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>1.4552631576</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
